--- a/biology/Médecine/Revue_d'histoire_de_la_médecine_hébraïque/Revue_d'histoire_de_la_médecine_hébraïque.xlsx
+++ b/biology/Médecine/Revue_d'histoire_de_la_médecine_hébraïque/Revue_d'histoire_de_la_médecine_hébraïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Revue_d%27histoire_de_la_m%C3%A9decine_h%C3%A9bra%C3%AFque</t>
+          <t>Revue_d'histoire_de_la_médecine_hébraïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Revue d’histoire de la médecine hébraïque est une revue publiée à Paris, à partir de 1948.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Revue_d%27histoire_de_la_m%C3%A9decine_h%C3%A9bra%C3%AFque</t>
+          <t>Revue_d'histoire_de_la_médecine_hébraïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Revue d’histoire de la médecine hébraïque commence à paraître à Paris en 1948[1].
-En juin 1948, Isidore Simon (né en 1908), un médecin psychiatre, publie le premier numéro de la Revue d’histoire de la médecine hébraïque. La publication de la revue cesse avec le décès du docteur Simon, le 17 septembre 1985. Environ 600 articles sont publiés en près de 40 ans[2].
-La revue est associée avec la Société d'histoire de la médecine hébraïque (1948-1985)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Revue d’histoire de la médecine hébraïque commence à paraître à Paris en 1948.
+En juin 1948, Isidore Simon (né en 1908), un médecin psychiatre, publie le premier numéro de la Revue d’histoire de la médecine hébraïque. La publication de la revue cesse avec le décès du docteur Simon, le 17 septembre 1985. Environ 600 articles sont publiés en près de 40 ans.
+La revue est associée avec la Société d'histoire de la médecine hébraïque (1948-1985).
 Isidore Simon est l'élève de Maxime Laignel-Lavastine qui le soutient lorsqu'il fonde la Société d'histoire de la médecine hébraïque, il en devient président d'honneur.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Revue_d%27histoire_de_la_m%C3%A9decine_h%C3%A9bra%C3%AFque</t>
+          <t>Revue_d'histoire_de_la_médecine_hébraïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Auteurs d'articles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les auteurs d'articles, on trouve les noms suivants:
 Israel Achel Hadas-Lebel (1905-1995)
